--- a/results/KNN/75Hz_2classes/res_basic.xlsx
+++ b/results/KNN/75Hz_2classes/res_basic.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -451,6 +451,21 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>prec_test</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>rec_test</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>f1_test</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>hyperparameters</t>
         </is>
       </c>
@@ -470,7 +485,16 @@
       <c r="D2" t="n">
         <v>0.61</v>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E2" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -491,7 +515,16 @@
       <c r="D3" t="n">
         <v>0.64</v>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E3" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -512,7 +545,16 @@
       <c r="D4" t="n">
         <v>0.68</v>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -533,7 +575,16 @@
       <c r="D5" t="n">
         <v>0.65</v>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E5" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -554,7 +605,16 @@
       <c r="D6" t="n">
         <v>0.53</v>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E6" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -575,7 +635,16 @@
       <c r="D7" t="n">
         <v>0.67</v>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="E7" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -596,7 +665,16 @@
       <c r="D8" t="n">
         <v>0.65</v>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E8" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -617,7 +695,16 @@
       <c r="D9" t="n">
         <v>0.5</v>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="E9" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -638,7 +725,16 @@
       <c r="D10" t="n">
         <v>0.73</v>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="E10" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -659,7 +755,16 @@
       <c r="D11" t="n">
         <v>0.78</v>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="E11" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -680,7 +785,16 @@
       <c r="D12" t="n">
         <v>0.58</v>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="E12" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -701,7 +815,16 @@
       <c r="D13" t="n">
         <v>0.7</v>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="E13" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -722,7 +845,16 @@
       <c r="D14" t="n">
         <v>0.72</v>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="E14" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -743,7 +875,16 @@
       <c r="D15" t="n">
         <v>0.67</v>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="E15" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
@@ -764,7 +905,16 @@
       <c r="D16" t="n">
         <v>0.67</v>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="E16" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="F16" t="n">
+        <v>1</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>{'algorithm': 'auto', 'leaf_size': 30, 'metric': 'minkowski', 'metric_params': None, 'n_jobs': None, 'n_neighbors': 5, 'p': 2, 'weights': 'uniform'}</t>
         </is>
